--- a/new_cell.xlsx
+++ b/new_cell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">cell </t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>TECH</t>
   </si>
@@ -153,6 +144,342 @@
   </si>
   <si>
     <t>&gt; 160</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>tch_traffic</t>
+  </si>
+  <si>
+    <t>available_tch</t>
+  </si>
+  <si>
+    <t>htch_traffic</t>
+  </si>
+  <si>
+    <t>sdcch_mht</t>
+  </si>
+  <si>
+    <t>tch_availability</t>
+  </si>
+  <si>
+    <t>amrfr_usage</t>
+  </si>
+  <si>
+    <t>amrhr_usage</t>
+  </si>
+  <si>
+    <t>cssr3</t>
+  </si>
+  <si>
+    <t>sdcch_congestion_rate</t>
+  </si>
+  <si>
+    <t>sdcch_drop_rate</t>
+  </si>
+  <si>
+    <t>tch_assignment_fr</t>
+  </si>
+  <si>
+    <t>tch_cong</t>
+  </si>
+  <si>
+    <t>ihsr2</t>
+  </si>
+  <si>
+    <t>ohsr2</t>
+  </si>
+  <si>
+    <t>sdcch_access_success_rate2</t>
+  </si>
+  <si>
+    <t>cdr3</t>
+  </si>
+  <si>
+    <t>rx_qualitty_dl_new</t>
+  </si>
+  <si>
+    <t>rx_qualitty_ul_new</t>
+  </si>
+  <si>
+    <t>cell_ref</t>
+  </si>
+  <si>
+    <t>cs_erlang</t>
+  </si>
+  <si>
+    <t>cs_rrc_connection_establishment_sr</t>
+  </si>
+  <si>
+    <t>cs_rab_setup_success_ratio</t>
+  </si>
+  <si>
+    <t>softer_handover_success_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>cs_rab_setup_congestion_rate(hu_cell)</t>
+  </si>
+  <si>
+    <t>radio_network_availability_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>bler_amr(cell_huawei)</t>
+  </si>
+  <si>
+    <t>cs_irat_ho_sr</t>
+  </si>
+  <si>
+    <t>amr_call_drop_ratio_new(hu_cell)</t>
+  </si>
+  <si>
+    <t>csps_rab_setup_success_ratio</t>
+  </si>
+  <si>
+    <t>interfrequency_hardhandover_success_ratio_csservice</t>
+  </si>
+  <si>
+    <t>cs_cssr</t>
+  </si>
+  <si>
+    <t>rrc_setup_success_ratio(cell.service)</t>
+  </si>
+  <si>
+    <t>soft_handover_succ_rate</t>
+  </si>
+  <si>
+    <t>inter_carrier_ho_success_rate</t>
+  </si>
+  <si>
+    <t>cs_rrc_setup_sr_ura_pch(hu_cell)</t>
+  </si>
+  <si>
+    <t>cs_cssr_ura_pch(hu_cell)</t>
+  </si>
+  <si>
+    <t>tbf_establishment_success_rate(ul+dl)(%)(hu_cell)</t>
+  </si>
+  <si>
+    <t>tbf_drop(ul+dl)(hu_cell)</t>
+  </si>
+  <si>
+    <t>average_throughput_of_downlink_gprs_llc_per_user(kbps)</t>
+  </si>
+  <si>
+    <t>average_throughput_of_downlink_egprs_llc_per_user(kbps)</t>
+  </si>
+  <si>
+    <t>thr_dl_gprs_per_ts(cell_hu)</t>
+  </si>
+  <si>
+    <t>thr_dl_egprs_per_ts(cell_hu)</t>
+  </si>
+  <si>
+    <t>payload_total_ul(cell_hu)</t>
+  </si>
+  <si>
+    <t>payload_total_dl(cell_hu)</t>
+  </si>
+  <si>
+    <t>payload_total(cell_hu)</t>
+  </si>
+  <si>
+    <t>edge_share_payload(cell_hu)</t>
+  </si>
+  <si>
+    <t>tch_availability(hu_cell)</t>
+  </si>
+  <si>
+    <t>trx</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>ps_cssr</t>
+  </si>
+  <si>
+    <t>ps_call_drop_ratio</t>
+  </si>
+  <si>
+    <t>average_hsdpa_user_throughput_dc+sc(mbit/s)(cell_huawei)</t>
+  </si>
+  <si>
+    <t>hsupa_uplink_throughput_in_v16(cell_hu)</t>
+  </si>
+  <si>
+    <t>cs+ps_rab_setup_success_ratio</t>
+  </si>
+  <si>
+    <t>hsdpa_soft_handover_success_ratio</t>
+  </si>
+  <si>
+    <t>hs_share_payload_%</t>
+  </si>
+  <si>
+    <t>hsdpa_cdr(%)_(hu_cell)_new</t>
+  </si>
+  <si>
+    <t>hsupa_cdr(%)_(hu_cell)_new</t>
+  </si>
+  <si>
+    <t>ps_r99_call_drop_ratio_with_pch(hu_cell)</t>
+  </si>
+  <si>
+    <t>nack_ratio(cell_huawei)</t>
+  </si>
+  <si>
+    <t>hsdpa_scheduling_cell_throughput(cell_huawei)</t>
+  </si>
+  <si>
+    <t>hsupa_cell_throughput(kbps)(hu_cell)</t>
+  </si>
+  <si>
+    <t>ps_rab_setup_success_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>bler9</t>
+  </si>
+  <si>
+    <t>cqi&gt;20</t>
+  </si>
+  <si>
+    <t>ps_rrc_connection_success_rate_repeatless(hu_cell)</t>
+  </si>
+  <si>
+    <t>ps_r99_rab_setup_success_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>hsdpa_rab_setup_success_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>hsupa_rab_setup_success_ratio(hu_cell)</t>
+  </si>
+  <si>
+    <t>vs.rab.abnormrel.ps_rnc</t>
+  </si>
+  <si>
+    <t>ps_rab_setup_congestion_rate</t>
+  </si>
+  <si>
+    <t>ps_rab_setup_success_ratio</t>
+  </si>
+  <si>
+    <t>ps_rab_congestion_rate</t>
+  </si>
+  <si>
+    <t>hsdpa_user_throughput</t>
+  </si>
+  <si>
+    <t>hsupa_throughput_mace</t>
+  </si>
+  <si>
+    <t>ps_cssr_ura_pch(hu_cell)</t>
+  </si>
+  <si>
+    <t>pch2dch_statetrans_sr(hu_cell)</t>
+  </si>
+  <si>
+    <t>mean_rtwp(cell_hu)</t>
+  </si>
+  <si>
+    <t>cqi_new(hu_cell)</t>
+  </si>
+  <si>
+    <t>total_traffic_volume(gb)</t>
+  </si>
+  <si>
+    <t>e-rab_setup_success_rate(hu_cell)</t>
+  </si>
+  <si>
+    <t>e-rab_setup_success_rate</t>
+  </si>
+  <si>
+    <t>ran_avail_rate</t>
+  </si>
+  <si>
+    <t>interf_hoout_sr</t>
+  </si>
+  <si>
+    <t>intraf_hoout_sr</t>
+  </si>
+  <si>
+    <t>inter_rat_handover_out_success_rate(3gpltogsm)</t>
+  </si>
+  <si>
+    <t>inter_rat_handover_out_successrate(3gpltowcdma)</t>
+  </si>
+  <si>
+    <t>average_dl_latency_ms(huawei_lte_eucell)</t>
+  </si>
+  <si>
+    <t>average_ul_packet_loss_%(huawei_lte_ucell)</t>
+  </si>
+  <si>
+    <t>call_drop_rate</t>
+  </si>
+  <si>
+    <t>average_downlink_user_throughput(mbit/s)</t>
+  </si>
+  <si>
+    <t>average_uplink_user_throughput(mbit/s)</t>
+  </si>
+  <si>
+    <t>csfb_rate</t>
+  </si>
+  <si>
+    <t>cssr(all)</t>
+  </si>
+  <si>
+    <t>downlink_traffic_volume(gb)</t>
+  </si>
+  <si>
+    <t>ul_traffic_volume(gb)</t>
+  </si>
+  <si>
+    <t>downlink_cell_throghput(kbit/s)</t>
+  </si>
+  <si>
+    <t>uplink_cell_throghput(kbit/s)</t>
+  </si>
+  <si>
+    <t>max_no_user</t>
+  </si>
+  <si>
+    <t>number_of_available_downlink_prbs_cell</t>
+  </si>
+  <si>
+    <t>average_cqi(huawei_lte_cell)</t>
+  </si>
+  <si>
+    <t>intra_rat_handover_sr_intra+inter_frequency(huawei_lte_cell</t>
+  </si>
+  <si>
+    <t>rrc_connection_setup_success_rate_service</t>
+  </si>
+  <si>
+    <t>s1signal_e-rab_setup_sr(hu_cell)</t>
+  </si>
+  <si>
+    <t>cell_unvail_duration_daily(huawei_cell_lte)</t>
+  </si>
+  <si>
+    <t>rssi_pucch(huawei_lte_cell)</t>
+  </si>
+  <si>
+    <t>rssi_pusch(huawei_lte_cell)</t>
+  </si>
+  <si>
+    <t>cell_availability_rate_exclude_blocking(cell_hu)</t>
+  </si>
+  <si>
+    <t>cell_availability_rate_include_blocking(cell_hu)</t>
+  </si>
+  <si>
+    <t>cell_availability_rate_include_blocking</t>
+  </si>
+  <si>
+    <t>cell_availability_rate_include_blocking(cell_hu_no_null)</t>
   </si>
 </sst>
 </file>
@@ -273,14 +600,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -288,6 +609,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent2 2" xfId="8"/>
@@ -300,7 +630,292 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="103">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -415,16 +1030,16 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium10 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="totalRow" dxfId="99"/>
+      <tableStyleElement type="firstColumn" dxfId="98"/>
+      <tableStyleElement type="lastColumn" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -436,6 +1051,172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T2" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A1:T2"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="cell_ref" dataDxfId="94"/>
+    <tableColumn id="2" name="cell" dataDxfId="93"/>
+    <tableColumn id="3" name="tch_traffic" dataDxfId="92"/>
+    <tableColumn id="4" name="available_tch" dataDxfId="91"/>
+    <tableColumn id="5" name="htch_traffic" dataDxfId="90"/>
+    <tableColumn id="6" name="sdcch_mht" dataDxfId="89"/>
+    <tableColumn id="7" name="tch_availability" dataDxfId="88"/>
+    <tableColumn id="8" name="amrfr_usage" dataDxfId="87"/>
+    <tableColumn id="9" name="amrhr_usage" dataDxfId="86"/>
+    <tableColumn id="10" name="cssr3" dataDxfId="85"/>
+    <tableColumn id="11" name="sdcch_congestion_rate" dataDxfId="84"/>
+    <tableColumn id="12" name="sdcch_drop_rate" dataDxfId="83"/>
+    <tableColumn id="13" name="tch_assignment_fr" dataDxfId="82"/>
+    <tableColumn id="14" name="tch_cong" dataDxfId="81"/>
+    <tableColumn id="15" name="ihsr2" dataDxfId="80"/>
+    <tableColumn id="16" name="ohsr2" dataDxfId="79"/>
+    <tableColumn id="17" name="sdcch_access_success_rate2" dataDxfId="78"/>
+    <tableColumn id="18" name="cdr3" dataDxfId="77"/>
+    <tableColumn id="19" name="rx_qualitty_dl_new" dataDxfId="76"/>
+    <tableColumn id="20" name="rx_qualitty_ul_new" dataDxfId="75"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S2" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53">
+  <autoFilter ref="A1:S2"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="cell_ref" dataDxfId="72"/>
+    <tableColumn id="2" name="cell" dataDxfId="71"/>
+    <tableColumn id="4" name="cs_erlang" dataDxfId="70"/>
+    <tableColumn id="5" name="cs_rrc_connection_establishment_sr" dataDxfId="69"/>
+    <tableColumn id="6" name="cs_rab_setup_success_ratio" dataDxfId="68"/>
+    <tableColumn id="7" name="softer_handover_success_ratio(hu_cell)" dataDxfId="67"/>
+    <tableColumn id="8" name="cs_rab_setup_congestion_rate(hu_cell)" dataDxfId="66"/>
+    <tableColumn id="9" name="radio_network_availability_ratio(hu_cell)" dataDxfId="65"/>
+    <tableColumn id="10" name="bler_amr(cell_huawei)" dataDxfId="64"/>
+    <tableColumn id="11" name="cs_irat_ho_sr" dataDxfId="63"/>
+    <tableColumn id="12" name="amr_call_drop_ratio_new(hu_cell)" dataDxfId="62"/>
+    <tableColumn id="13" name="csps_rab_setup_success_ratio" dataDxfId="61"/>
+    <tableColumn id="14" name="interfrequency_hardhandover_success_ratio_csservice" dataDxfId="60"/>
+    <tableColumn id="15" name="cs_cssr" dataDxfId="59"/>
+    <tableColumn id="16" name="rrc_setup_success_ratio(cell.service)" dataDxfId="58"/>
+    <tableColumn id="17" name="soft_handover_succ_rate" dataDxfId="57"/>
+    <tableColumn id="18" name="inter_carrier_ho_success_rate" dataDxfId="56"/>
+    <tableColumn id="19" name="cs_rrc_setup_sr_ura_pch(hu_cell)" dataDxfId="55"/>
+    <tableColumn id="20" name="cs_cssr_ura_pch(hu_cell)" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="cell_ref" dataDxfId="51"/>
+    <tableColumn id="2" name="cell" dataDxfId="50"/>
+    <tableColumn id="3" name="tbf_establishment_success_rate(ul+dl)(%)(hu_cell)" dataDxfId="49"/>
+    <tableColumn id="4" name="tbf_drop(ul+dl)(hu_cell)" dataDxfId="48"/>
+    <tableColumn id="5" name="average_throughput_of_downlink_gprs_llc_per_user(kbps)" dataDxfId="47"/>
+    <tableColumn id="6" name="average_throughput_of_downlink_egprs_llc_per_user(kbps)" dataDxfId="46"/>
+    <tableColumn id="7" name="thr_dl_gprs_per_ts(cell_hu)" dataDxfId="45"/>
+    <tableColumn id="8" name="thr_dl_egprs_per_ts(cell_hu)" dataDxfId="44"/>
+    <tableColumn id="9" name="payload_total_ul(cell_hu)" dataDxfId="43"/>
+    <tableColumn id="10" name="payload_total_dl(cell_hu)" dataDxfId="42"/>
+    <tableColumn id="11" name="payload_total(cell_hu)" dataDxfId="41"/>
+    <tableColumn id="12" name="edge_share_payload(cell_hu)" dataDxfId="40"/>
+    <tableColumn id="13" name="tch_availability(hu_cell)" dataDxfId="39"/>
+    <tableColumn id="14" name="trx" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AH2" totalsRowShown="0">
+  <autoFilter ref="A1:AH2"/>
+  <tableColumns count="34">
+    <tableColumn id="1" name="cell_ref"/>
+    <tableColumn id="2" name="cell"/>
+    <tableColumn id="5" name="payload"/>
+    <tableColumn id="6" name="ps_cssr"/>
+    <tableColumn id="7" name="ps_call_drop_ratio"/>
+    <tableColumn id="8" name="average_hsdpa_user_throughput_dc+sc(mbit/s)(cell_huawei)"/>
+    <tableColumn id="9" name="hsupa_uplink_throughput_in_v16(cell_hu)"/>
+    <tableColumn id="10" name="cs+ps_rab_setup_success_ratio"/>
+    <tableColumn id="11" name="hsdpa_soft_handover_success_ratio"/>
+    <tableColumn id="12" name="hs_share_payload_%"/>
+    <tableColumn id="13" name="hsdpa_cdr(%)_(hu_cell)_new"/>
+    <tableColumn id="14" name="hsupa_cdr(%)_(hu_cell)_new"/>
+    <tableColumn id="15" name="ps_r99_call_drop_ratio_with_pch(hu_cell)"/>
+    <tableColumn id="16" name="nack_ratio(cell_huawei)"/>
+    <tableColumn id="17" name="hsdpa_scheduling_cell_throughput(cell_huawei)"/>
+    <tableColumn id="18" name="hsupa_cell_throughput(kbps)(hu_cell)"/>
+    <tableColumn id="19" name="radio_network_availability_ratio(hu_cell)"/>
+    <tableColumn id="20" name="ps_rab_setup_success_ratio(hu_cell)"/>
+    <tableColumn id="21" name="bler9"/>
+    <tableColumn id="22" name="cqi&gt;20"/>
+    <tableColumn id="23" name="ps_rrc_connection_success_rate_repeatless(hu_cell)"/>
+    <tableColumn id="24" name="ps_r99_rab_setup_success_ratio(hu_cell)"/>
+    <tableColumn id="25" name="hsdpa_rab_setup_success_ratio(hu_cell)"/>
+    <tableColumn id="26" name="hsupa_rab_setup_success_ratio(hu_cell)"/>
+    <tableColumn id="27" name="vs.rab.abnormrel.ps_rnc"/>
+    <tableColumn id="28" name="ps_rab_setup_congestion_rate"/>
+    <tableColumn id="29" name="ps_rab_setup_success_ratio"/>
+    <tableColumn id="30" name="ps_rab_congestion_rate"/>
+    <tableColumn id="31" name="hsdpa_user_throughput"/>
+    <tableColumn id="32" name="hsupa_throughput_mace"/>
+    <tableColumn id="33" name="ps_cssr_ura_pch(hu_cell)"/>
+    <tableColumn id="34" name="pch2dch_statetrans_sr(hu_cell)"/>
+    <tableColumn id="35" name="mean_rtwp(cell_hu)"/>
+    <tableColumn id="36" name="cqi_new(hu_cell)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:AH2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:AH2"/>
+  <tableColumns count="34">
+    <tableColumn id="1" name="cell_ref" dataDxfId="35"/>
+    <tableColumn id="2" name="cell" dataDxfId="34"/>
+    <tableColumn id="3" name="total_traffic_volume(gb)" dataDxfId="33"/>
+    <tableColumn id="4" name="e-rab_setup_success_rate(hu_cell)" dataDxfId="32"/>
+    <tableColumn id="5" name="e-rab_setup_success_rate" dataDxfId="31"/>
+    <tableColumn id="6" name="ran_avail_rate" dataDxfId="30"/>
+    <tableColumn id="7" name="interf_hoout_sr" dataDxfId="29"/>
+    <tableColumn id="8" name="intraf_hoout_sr" dataDxfId="28"/>
+    <tableColumn id="9" name="inter_rat_handover_out_success_rate(3gpltogsm)" dataDxfId="27"/>
+    <tableColumn id="10" name="inter_rat_handover_out_successrate(3gpltowcdma)" dataDxfId="26"/>
+    <tableColumn id="11" name="average_dl_latency_ms(huawei_lte_eucell)" dataDxfId="25"/>
+    <tableColumn id="12" name="average_ul_packet_loss_%(huawei_lte_ucell)" dataDxfId="24"/>
+    <tableColumn id="13" name="call_drop_rate" dataDxfId="23"/>
+    <tableColumn id="14" name="average_downlink_user_throughput(mbit/s)" dataDxfId="22"/>
+    <tableColumn id="15" name="average_uplink_user_throughput(mbit/s)" dataDxfId="21"/>
+    <tableColumn id="16" name="csfb_rate" dataDxfId="20"/>
+    <tableColumn id="17" name="cssr(all)" dataDxfId="19"/>
+    <tableColumn id="18" name="downlink_traffic_volume(gb)" dataDxfId="18"/>
+    <tableColumn id="19" name="ul_traffic_volume(gb)" dataDxfId="17"/>
+    <tableColumn id="20" name="downlink_cell_throghput(kbit/s)" dataDxfId="16"/>
+    <tableColumn id="21" name="uplink_cell_throghput(kbit/s)" dataDxfId="15"/>
+    <tableColumn id="22" name="max_no_user" dataDxfId="14"/>
+    <tableColumn id="23" name="number_of_available_downlink_prbs_cell" dataDxfId="13"/>
+    <tableColumn id="24" name="average_cqi(huawei_lte_cell)" dataDxfId="12"/>
+    <tableColumn id="25" name="intra_rat_handover_sr_intra+inter_frequency(huawei_lte_cell" dataDxfId="11"/>
+    <tableColumn id="26" name="rrc_connection_setup_success_rate_service" dataDxfId="10"/>
+    <tableColumn id="27" name="s1signal_e-rab_setup_sr(hu_cell)" dataDxfId="9"/>
+    <tableColumn id="28" name="cell_unvail_duration_daily(huawei_cell_lte)" dataDxfId="8"/>
+    <tableColumn id="29" name="rssi_pucch(huawei_lte_cell)" dataDxfId="7"/>
+    <tableColumn id="30" name="rssi_pusch(huawei_lte_cell)" dataDxfId="6"/>
+    <tableColumn id="31" name="cell_availability_rate_exclude_blocking(cell_hu)" dataDxfId="5"/>
+    <tableColumn id="32" name="cell_availability_rate_include_blocking(cell_hu)" dataDxfId="4"/>
+    <tableColumn id="33" name="cell_availability_rate_include_blocking" dataDxfId="3"/>
+    <tableColumn id="34" name="cell_availability_rate_include_blocking(cell_hu_no_null)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,329 +1491,329 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
+      <c r="M1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>13</v>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>15</v>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>17</v>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>19</v>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>17</v>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>19</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1055,80 +1836,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="53.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>